--- a/version_oct_2023/Reg_InitialValues.xlsx
+++ b/version_oct_2023/Reg_InitialValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/vn73vs_plan_aau_dk/Documents/Research Postdoc RU/Felix-Model/version_oct_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{BC87DD94-8A18-4A38-BD52-67B37BD28289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BEB1567-31C5-439B-BDC9-7561B6DEC8C8}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{BC87DD94-8A18-4A38-BD52-67B37BD28289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34AF1337-3F99-4697-9021-69F9E35F8284}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1800" yWindow="1365" windowWidth="21600" windowHeight="11505" tabRatio="695" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="695" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -1502,11 +1502,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1841,8 +1842,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2091,6 +2122,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,7 +2570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2745,6 +2788,71 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="45" borderId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2905,55 +3013,97 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="196">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="155" xr:uid="{2D10A2A9-936B-4C9B-BBD7-C8991564CF00}"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="157" xr:uid="{E1483329-C91A-45D1-B8F5-1949A66D462A}"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="159" xr:uid="{F8EBAE95-5ABF-42C6-B0B7-88E38C528ABC}"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="161" xr:uid="{3F55FA42-28A3-46DA-93EA-A300E0232019}"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="163" xr:uid="{7FC02578-C68F-4578-9E08-AB8EEDE42C39}"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="165" xr:uid="{5B414A00-F682-491C-964D-4CCAD1514FAE}"/>
     <cellStyle name="20% - 着色 1 2" xfId="103" xr:uid="{93995579-F647-4A4D-8CB6-4C8D203E7164}"/>
+    <cellStyle name="20% - 着色 1 2 2" xfId="169" xr:uid="{55A3F83C-62F6-4533-9B49-092D998BC1DA}"/>
     <cellStyle name="20% - 着色 1 3" xfId="61" xr:uid="{8F8BE3BB-488D-4973-801A-32F009FA4C21}"/>
     <cellStyle name="20% - 着色 2 2" xfId="107" xr:uid="{A9310851-C7A9-4466-9EEF-6E1E4361EAC4}"/>
+    <cellStyle name="20% - 着色 2 2 2" xfId="171" xr:uid="{35C6B504-BC2E-49A4-8E35-865D3E439912}"/>
     <cellStyle name="20% - 着色 2 3" xfId="65" xr:uid="{53B5ABB2-3231-4568-B0DA-A8C95B931EEF}"/>
     <cellStyle name="20% - 着色 3 2" xfId="111" xr:uid="{39DF90C3-4B8D-48D6-AE36-7064FCCF0498}"/>
+    <cellStyle name="20% - 着色 3 2 2" xfId="173" xr:uid="{A822FBAF-BAB2-4B99-AA1C-BE26248BB5ED}"/>
     <cellStyle name="20% - 着色 3 3" xfId="69" xr:uid="{2DA92B6B-353D-4748-90BE-D9E37D97E518}"/>
     <cellStyle name="20% - 着色 4 2" xfId="115" xr:uid="{0448FF2A-6BD6-48DC-A972-5F7DBD876868}"/>
+    <cellStyle name="20% - 着色 4 2 2" xfId="175" xr:uid="{23C83579-7BEE-46FA-8994-BABCF9ADD705}"/>
     <cellStyle name="20% - 着色 4 3" xfId="73" xr:uid="{D2700AAB-4E96-4609-A213-77C7312BF1D3}"/>
     <cellStyle name="20% - 着色 5 2" xfId="119" xr:uid="{696239B5-C303-4ED9-89B2-59F18C136729}"/>
+    <cellStyle name="20% - 着色 5 2 2" xfId="177" xr:uid="{3D4DE908-8D09-4714-AA7A-59B0ED6D262B}"/>
     <cellStyle name="20% - 着色 5 3" xfId="77" xr:uid="{64F6C04F-2A27-41A5-9869-8782C863A6E1}"/>
     <cellStyle name="20% - 着色 6 2" xfId="123" xr:uid="{7443F0DE-F560-41C6-9392-C11EF5F96662}"/>
+    <cellStyle name="20% - 着色 6 2 2" xfId="179" xr:uid="{3AE9DFAC-9B12-419E-BC29-27271306BC61}"/>
     <cellStyle name="20% - 着色 6 3" xfId="81" xr:uid="{677C5F96-174A-42C1-A5E3-021DBF7378BD}"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="156" xr:uid="{488D900D-5E84-405B-840B-6B90FAAAB4E1}"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="158" xr:uid="{B42AAAE3-8D28-4775-B110-5FAE81516809}"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="160" xr:uid="{67F82854-72F3-46AF-8E6F-D15691F23129}"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="162" xr:uid="{2344038D-2535-4F57-86C6-5A720B98E7F1}"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="164" xr:uid="{65B4B336-9A09-4294-AFE9-88B2A297B741}"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="166" xr:uid="{CF5C500F-8248-48B9-AA96-79D0235DEE55}"/>
     <cellStyle name="40% - 着色 1 2" xfId="104" xr:uid="{EA853727-AA3F-42F9-ADC9-CEAD541B2673}"/>
+    <cellStyle name="40% - 着色 1 2 2" xfId="170" xr:uid="{C96503E6-1E21-4D4B-A664-2F470D898265}"/>
     <cellStyle name="40% - 着色 1 3" xfId="62" xr:uid="{7E3DCD2A-3ED5-4D2C-AF95-62F45BE59A9B}"/>
     <cellStyle name="40% - 着色 2 2" xfId="108" xr:uid="{D03EE440-DB73-446A-B565-DF3A7043FC81}"/>
+    <cellStyle name="40% - 着色 2 2 2" xfId="172" xr:uid="{D1329872-F6BE-42B2-993D-247E4FA0F2DF}"/>
     <cellStyle name="40% - 着色 2 3" xfId="66" xr:uid="{9C4CE0A7-62FD-4A78-87B3-94AFD3805993}"/>
     <cellStyle name="40% - 着色 3 2" xfId="112" xr:uid="{B5AD516F-55EB-4409-B5B9-0AC86C8F9B39}"/>
+    <cellStyle name="40% - 着色 3 2 2" xfId="174" xr:uid="{CC18255D-28B9-4E82-87E8-A7DE2C9F2C05}"/>
     <cellStyle name="40% - 着色 3 3" xfId="70" xr:uid="{D3CB2870-010F-4D25-827B-2736EFC23E7F}"/>
     <cellStyle name="40% - 着色 4 2" xfId="116" xr:uid="{C59C19D1-FB98-46AD-8646-267864CFD03E}"/>
+    <cellStyle name="40% - 着色 4 2 2" xfId="176" xr:uid="{93D3EC80-0634-48AC-BB4C-ECD5E64E5289}"/>
     <cellStyle name="40% - 着色 4 3" xfId="74" xr:uid="{8AF08939-3ADE-43D7-846F-9A52915B65FC}"/>
     <cellStyle name="40% - 着色 5 2" xfId="120" xr:uid="{98F60706-C25D-4DD1-9537-1FF225FF1F26}"/>
+    <cellStyle name="40% - 着色 5 2 2" xfId="178" xr:uid="{CF05BDD9-0854-4BDA-95B9-CE76963F01C1}"/>
     <cellStyle name="40% - 着色 5 3" xfId="78" xr:uid="{933B6379-A6D9-4B01-B3F2-B4303CDF815A}"/>
     <cellStyle name="40% - 着色 6 2" xfId="124" xr:uid="{594B2EF0-AC88-43F4-85E1-940940DAD2A5}"/>
+    <cellStyle name="40% - 着色 6 2 2" xfId="180" xr:uid="{A60078F1-B1AB-4A38-AC60-4915352F737B}"/>
     <cellStyle name="40% - 着色 6 3" xfId="82" xr:uid="{C740B160-361D-45E7-B38F-1E3F75E72D1E}"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent1 2" xfId="127" xr:uid="{7EDA28BF-7CF8-430E-808C-3240C925078B}"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="189" xr:uid="{35A9479B-3A81-4A40-8B0C-CAD3FB5EE650}"/>
+    <cellStyle name="60% - Accent1 3" xfId="147" xr:uid="{49D7CB7D-AD15-4114-98AD-D642D4BCC90F}"/>
+    <cellStyle name="60% - Accent1 3 2" xfId="182" xr:uid="{95D25EA5-8515-4249-A300-094EB7E7BDE3}"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent2 2" xfId="128" xr:uid="{7D17F1EE-8EC2-442A-B3A6-0D68B1208F67}"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="190" xr:uid="{22653C73-DE5D-4907-879E-18ADD36D372C}"/>
+    <cellStyle name="60% - Accent2 3" xfId="148" xr:uid="{A2104EC4-F346-43C2-83D8-695F3F1FCC22}"/>
+    <cellStyle name="60% - Accent2 3 2" xfId="183" xr:uid="{05EC4988-327B-4BDD-ADB8-A5BAB8BA22ED}"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Accent3 2" xfId="129" xr:uid="{D999BFC3-E13E-4451-B92D-E65248A550F0}"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="191" xr:uid="{61CD689A-3DFF-48AE-97CA-D14DE5223F99}"/>
+    <cellStyle name="60% - Accent3 3" xfId="149" xr:uid="{1606CC18-0313-4350-913D-7C0B08BA80B2}"/>
+    <cellStyle name="60% - Accent3 3 2" xfId="184" xr:uid="{55839BB3-34A7-436D-9E0E-79E8E57525ED}"/>
     <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Accent4 2" xfId="130" xr:uid="{4AECDC1A-A5E0-4C19-B510-26D91C9DBA04}"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="192" xr:uid="{5D88604C-3797-4E39-9D90-E21097C416ED}"/>
+    <cellStyle name="60% - Accent4 3" xfId="150" xr:uid="{4775F061-AD39-4353-AC1D-C96C65D236DC}"/>
+    <cellStyle name="60% - Accent4 3 2" xfId="185" xr:uid="{42847DBE-6878-4149-8CAF-559797827571}"/>
     <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Accent5 2" xfId="131" xr:uid="{FEC4F40A-C0BE-4790-84CA-3FD2A6AF445D}"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="193" xr:uid="{0750C822-39F0-44F3-BB2B-6F6DB28001AB}"/>
+    <cellStyle name="60% - Accent5 3" xfId="151" xr:uid="{B9B5454A-AB7C-4152-80CB-257FDFB8AD3D}"/>
+    <cellStyle name="60% - Accent5 3 2" xfId="186" xr:uid="{78FED51C-FEFC-4C0C-8DA9-981C07BA4A19}"/>
     <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Accent6 2" xfId="132" xr:uid="{B6A63E53-B61C-4D9C-A352-BC6F941E685A}"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="194" xr:uid="{CC1BE250-32DB-4386-B355-951050EF34E6}"/>
+    <cellStyle name="60% - Accent6 3" xfId="152" xr:uid="{B37225C3-6684-4715-A677-D6B484CDD8D6}"/>
+    <cellStyle name="60% - Accent6 3 2" xfId="187" xr:uid="{2A7C936D-12BE-4316-B9C8-12FA2EC6A3BF}"/>
     <cellStyle name="60% - 着色 1 2" xfId="105" xr:uid="{15E45F4D-C835-4D4F-9286-27B0409E5465}"/>
     <cellStyle name="60% - 着色 1 3" xfId="63" xr:uid="{91A28203-149F-4C0D-A134-B00B76705294}"/>
     <cellStyle name="60% - 着色 2 2" xfId="109" xr:uid="{A0E4F0DE-4B32-4105-AB3E-B26BC48DA279}"/>
@@ -2975,6 +3125,8 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma 2" xfId="134" xr:uid="{5B60737A-6DC7-4D9F-AC78-FF2195E4D2D8}"/>
+    <cellStyle name="Cover" xfId="135" xr:uid="{7B3CF6BB-B0E4-459A-98A8-D577E700402C}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -2983,19 +3135,37 @@
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Menu" xfId="136" xr:uid="{B188CD2F-6CD8-4025-8194-B95CBC7C0F68}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="126" xr:uid="{BE09EE77-ECBE-45AD-8306-5214775036A7}"/>
+    <cellStyle name="Neutral 2 2" xfId="188" xr:uid="{F4A62701-148F-41E4-818B-266D8A1B8C80}"/>
+    <cellStyle name="Neutral 3" xfId="145" xr:uid="{84C5E2F1-8DFF-49DA-BFC7-3BC643C9E2AA}"/>
+    <cellStyle name="Neutral 3 2" xfId="181" xr:uid="{0C4104E1-63FA-4539-88EA-725DC0D7EACF}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 18" xfId="195" xr:uid="{66DDA2CB-E9D1-45BA-ABB6-A3B900CD91C5}"/>
+    <cellStyle name="Normal 2" xfId="137" xr:uid="{970D2D19-D813-4D97-A7D3-EDB5BD87AAD8}"/>
+    <cellStyle name="Normal 2 2" xfId="138" xr:uid="{8321B2C2-E3C4-4297-B1D6-231C8E857868}"/>
+    <cellStyle name="Normal 2 3" xfId="139" xr:uid="{CDF3CAFE-F4A1-4B79-98BD-1F39004F6AC6}"/>
+    <cellStyle name="Normal 3" xfId="140" xr:uid="{5A91C70F-D1E1-4233-8749-66199EB67AB9}"/>
+    <cellStyle name="Normal 4" xfId="141" xr:uid="{298CB21E-0578-4166-80C4-5CBB5BB6242D}"/>
+    <cellStyle name="Normal 4 2" xfId="142" xr:uid="{696148ED-03A8-4DFC-9B5E-B245204EEB38}"/>
+    <cellStyle name="Normal 5" xfId="144" xr:uid="{2F5C2A36-8131-457F-867B-00114056F7E6}"/>
+    <cellStyle name="Normal 6" xfId="153" xr:uid="{EBF2B9CA-6B50-4143-B7E7-52DBDC25A8CD}"/>
+    <cellStyle name="Normal 7" xfId="133" xr:uid="{EE04DE67-DD56-4F37-BABB-727A10BA847F}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="146" xr:uid="{B69D0AF8-79A3-49E8-A8C3-97E5A7974521}"/>
+    <cellStyle name="Note 3" xfId="154" xr:uid="{8CF13428-D0BF-489C-9CF7-DE9352C8C68B}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Year" xfId="143" xr:uid="{9B4578E9-C97C-467E-9370-0ECEE4A0CAAE}"/>
     <cellStyle name="好 2" xfId="90" xr:uid="{5547182C-B6F0-4F1A-91B3-3003F3B6815F}"/>
     <cellStyle name="好 3" xfId="48" xr:uid="{30188C77-FB65-41CF-A12D-205694642768}"/>
     <cellStyle name="差 2" xfId="91" xr:uid="{43908EBE-4906-42B2-BCE4-03D31AA52A82}"/>
     <cellStyle name="差 3" xfId="49" xr:uid="{EF2E6EAC-CAC0-4DA3-B3E2-F425C160CF17}"/>
     <cellStyle name="常规 2" xfId="84" xr:uid="{DAA3C3BC-ED49-42B6-B280-365C07D8349E}"/>
+    <cellStyle name="常规 2 2" xfId="167" xr:uid="{0508DF71-5380-4662-8695-65395707E764}"/>
     <cellStyle name="常规 3" xfId="42" xr:uid="{4008D80D-1761-45FE-A844-2D95824A05D5}"/>
     <cellStyle name="标题 1 2" xfId="86" xr:uid="{72BA7A1F-5170-438B-B745-D1A3F68520E6}"/>
     <cellStyle name="标题 1 3" xfId="44" xr:uid="{E1E16E97-7938-41FE-B64D-EF29EA30F5C9}"/>
@@ -3012,6 +3182,7 @@
     <cellStyle name="汇总 2" xfId="101" xr:uid="{6F6E54A5-3246-418D-9341-07E7CC1C5E4F}"/>
     <cellStyle name="汇总 3" xfId="59" xr:uid="{70E3BCD1-9D0F-4881-BFFE-71822F046248}"/>
     <cellStyle name="注释 2" xfId="99" xr:uid="{63DFFAEE-E5CD-43DA-8835-5D21C6F7CAC7}"/>
+    <cellStyle name="注释 2 2" xfId="168" xr:uid="{851CFDA9-EE84-4854-8D5D-156093FD0D9D}"/>
     <cellStyle name="注释 3" xfId="57" xr:uid="{2B1A0869-2A59-4259-A6A6-4B7C29249A88}"/>
     <cellStyle name="着色 1 2" xfId="102" xr:uid="{66E72FBD-C50D-4B5C-8999-41AD42A4E969}"/>
     <cellStyle name="着色 1 3" xfId="60" xr:uid="{ED194787-FEB1-46ED-A7A6-E9D6987A94D9}"/>
@@ -4723,6 +4894,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -55078,7 +55253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F7AE5B-F9A7-4EA8-8D55-61A6797D1EA8}">
   <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
@@ -59337,8 +59512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FAD8CF-47DB-47BD-A145-F803D3707015}">
   <dimension ref="A1:CX43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/version_oct_2023/Reg_InitialValues.xlsx
+++ b/version_oct_2023/Reg_InitialValues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{BC87DD94-8A18-4A38-BD52-67B37BD28289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34AF1337-3F99-4697-9021-69F9E35F8284}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="695" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="870" yWindow="930" windowWidth="29850" windowHeight="15630" tabRatio="695" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -5168,15 +5168,15 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7302,15 +7302,15 @@
       <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.88671875" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9527,19 +9527,19 @@
       <selection pane="topRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="22" width="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1">
+    <row r="1" spans="1:32" ht="15" thickBot="1">
       <c r="A1" s="2">
         <v>1900</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>133000000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15.75" thickBot="1">
+    <row r="4" spans="1:32" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>111</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>74000000</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15.75" thickBot="1">
+    <row r="7" spans="1:32" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>111</v>
       </c>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:32" ht="15.75" thickBot="1">
+    <row r="10" spans="1:32" ht="15" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>111</v>
       </c>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75" thickBot="1">
+    <row r="13" spans="1:32" ht="15" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>111</v>
       </c>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75" thickBot="1">
+    <row r="16" spans="1:32" ht="15" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:42" ht="15.75" thickBot="1">
+    <row r="19" spans="1:42" ht="15" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:42" ht="19.5" thickBot="1">
+    <row r="21" spans="1:42" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="33" t="s">
         <v>472</v>
       </c>
@@ -11004,7 +11004,7 @@
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
     </row>
-    <row r="22" spans="1:42" ht="15.75" thickBot="1">
+    <row r="22" spans="1:42" ht="15" thickBot="1">
       <c r="A22" s="2">
         <v>1950</v>
       </c>
@@ -11211,7 +11211,7 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
     </row>
-    <row r="25" spans="1:42" ht="15.75" thickBot="1">
+    <row r="25" spans="1:42" ht="15" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
@@ -11419,7 +11419,7 @@
       <c r="AO27" s="83"/>
       <c r="AP27" s="83"/>
     </row>
-    <row r="28" spans="1:42" ht="15.75" thickBot="1">
+    <row r="28" spans="1:42" ht="15" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>111</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="AO30" s="83"/>
       <c r="AP30" s="83"/>
     </row>
-    <row r="31" spans="1:42" ht="15.75" thickBot="1">
+    <row r="31" spans="1:42" ht="15" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>111</v>
       </c>
@@ -11837,7 +11837,7 @@
       <c r="AO33" s="83"/>
       <c r="AP33" s="83"/>
     </row>
-    <row r="34" spans="1:42" ht="15.75" thickBot="1">
+    <row r="34" spans="1:42" ht="15" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>111</v>
       </c>
@@ -12046,7 +12046,7 @@
       <c r="AO36" s="83"/>
       <c r="AP36" s="83"/>
     </row>
-    <row r="37" spans="1:42" ht="15.75" thickBot="1">
+    <row r="37" spans="1:42" ht="15" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>111</v>
       </c>
@@ -12164,7 +12164,7 @@
       <c r="V38" s="69"/>
       <c r="Y38" s="10"/>
     </row>
-    <row r="39" spans="1:42" ht="15.75" thickBot="1">
+    <row r="39" spans="1:42" ht="15" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>110</v>
       </c>
@@ -12255,7 +12255,7 @@
       <c r="AO39" s="83"/>
       <c r="AP39" s="83"/>
     </row>
-    <row r="40" spans="1:42" ht="15.75" thickBot="1">
+    <row r="40" spans="1:42" ht="15" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>111</v>
       </c>
@@ -12422,17 +12422,17 @@
       <c r="V43" s="10"/>
       <c r="Y43" s="84"/>
     </row>
-    <row r="44" spans="1:42" ht="15.75">
+    <row r="44" spans="1:42" ht="15.6">
       <c r="A44" s="39"/>
       <c r="Y44" s="84"/>
     </row>
-    <row r="45" spans="1:42" ht="19.5" thickBot="1">
+    <row r="45" spans="1:42" ht="18.600000000000001" thickBot="1">
       <c r="A45" s="33" t="s">
         <v>211</v>
       </c>
       <c r="Y45" s="84"/>
     </row>
-    <row r="46" spans="1:42" ht="15.75" thickBot="1">
+    <row r="46" spans="1:42" ht="15" thickBot="1">
       <c r="A46" s="2">
         <v>1900</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15.75" thickBot="1">
+    <row r="49" spans="1:22" ht="15" thickBot="1">
       <c r="A49" s="66" t="s">
         <v>111</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15.75" thickBot="1">
+    <row r="52" spans="1:22" ht="15" thickBot="1">
       <c r="A52" s="66" t="s">
         <v>111</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="15.75" thickBot="1">
+    <row r="55" spans="1:22" ht="15" thickBot="1">
       <c r="A55" s="66" t="s">
         <v>111</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="15.75" thickBot="1">
+    <row r="58" spans="1:22" ht="15" thickBot="1">
       <c r="A58" s="66" t="s">
         <v>111</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15.75" thickBot="1">
+    <row r="61" spans="1:22" ht="15" thickBot="1">
       <c r="A61" s="66" t="s">
         <v>111</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="15.75" thickBot="1">
+    <row r="64" spans="1:22" ht="15" thickBot="1">
       <c r="A64" s="66" t="s">
         <v>111</v>
       </c>
@@ -13724,8 +13724,8 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15.75" thickBot="1"/>
-    <row r="67" spans="1:24" ht="15.75" thickBot="1">
+    <row r="66" spans="1:24" ht="15" thickBot="1"/>
+    <row r="67" spans="1:24" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>2000</v>
       </c>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="X69" s="10"/>
     </row>
-    <row r="70" spans="1:24" ht="15.75" thickBot="1">
+    <row r="70" spans="1:24" ht="15" thickBot="1">
       <c r="A70" s="66" t="s">
         <v>111</v>
       </c>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="X72" s="10"/>
     </row>
-    <row r="73" spans="1:24" ht="15.75" thickBot="1">
+    <row r="73" spans="1:24" ht="15" thickBot="1">
       <c r="A73" s="66" t="s">
         <v>111</v>
       </c>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="X75" s="10"/>
     </row>
-    <row r="76" spans="1:24" ht="15.75" thickBot="1">
+    <row r="76" spans="1:24" ht="15" thickBot="1">
       <c r="A76" s="66" t="s">
         <v>111</v>
       </c>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="X78" s="10"/>
     </row>
-    <row r="79" spans="1:24" ht="15.75" thickBot="1">
+    <row r="79" spans="1:24" ht="15" thickBot="1">
       <c r="A79" s="66" t="s">
         <v>111</v>
       </c>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="X81" s="10"/>
     </row>
-    <row r="82" spans="1:24" ht="15.75" thickBot="1">
+    <row r="82" spans="1:24" ht="15" thickBot="1">
       <c r="A82" s="66" t="s">
         <v>111</v>
       </c>
@@ -14652,27 +14652,27 @@
       <selection activeCell="A96" sqref="A96:R98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5546875" customWidth="1"/>
+    <col min="40" max="40" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="19.5" thickBot="1">
+    <row r="1" spans="1:41" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>112</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15.75" thickBot="1">
+    <row r="4" spans="1:41" ht="15" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>111</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:41" ht="15" thickBot="1"/>
     <row r="6" spans="1:41">
       <c r="A6" s="2">
         <v>1960</v>
@@ -14989,7 +14989,7 @@
         <v>591390.375</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1">
+    <row r="8" spans="1:41" ht="15" thickBot="1">
       <c r="A8" s="14" t="s">
         <v>111</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>406745.5</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:41" ht="15" thickBot="1"/>
     <row r="10" spans="1:41">
       <c r="A10" s="2">
         <v>2016</v>
@@ -15296,7 +15296,7 @@
         <v>30920</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15.75" thickBot="1">
+    <row r="12" spans="1:41" ht="15" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>111</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>141850</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="19.5" thickBot="1">
+    <row r="14" spans="1:41" ht="18.600000000000001" thickBot="1">
       <c r="A14" s="33" t="s">
         <v>114</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" thickBot="1">
+    <row r="17" spans="1:40" ht="15" thickBot="1">
       <c r="A17" s="14" t="s">
         <v>111</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:40" ht="15" thickBot="1"/>
     <row r="19" spans="1:40">
       <c r="A19" s="2">
         <v>1960</v>
@@ -15720,7 +15720,7 @@
         <v>495679.0625</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="15.75" thickBot="1">
+    <row r="21" spans="1:40" ht="15" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>111</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>426500.21875</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:40" ht="15" thickBot="1"/>
     <row r="23" spans="1:40">
       <c r="A23" s="2">
         <v>2016</v>
@@ -16012,7 +16012,7 @@
         <v>27390</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15.75" thickBot="1">
+    <row r="25" spans="1:40" ht="15" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>111</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>125540</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="19.5" thickBot="1">
+    <row r="27" spans="1:40" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="33" t="s">
         <v>115</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="15.75" thickBot="1">
+    <row r="30" spans="1:40" ht="15" thickBot="1">
       <c r="A30" s="14" t="s">
         <v>111</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:40" ht="15" thickBot="1"/>
     <row r="32" spans="1:40">
       <c r="A32" s="2">
         <v>1960</v>
@@ -16417,7 +16417,7 @@
         <v>97609.96875</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15.75" thickBot="1">
+    <row r="34" spans="1:40" ht="15" thickBot="1">
       <c r="A34" s="14" t="s">
         <v>111</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>84032.796875</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="35" spans="1:40" ht="15" thickBot="1"/>
     <row r="36" spans="1:40">
       <c r="A36" s="2">
         <v>2016</v>
@@ -16696,7 +16696,7 @@
         <v>9460</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15.75" thickBot="1">
+    <row r="38" spans="1:40" ht="15" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>111</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>18130</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="19.5" thickBot="1">
+    <row r="40" spans="1:40" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="33" t="s">
         <v>212</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="15.75" thickBot="1">
+    <row r="43" spans="1:40" ht="15" thickBot="1">
       <c r="A43" s="14" t="s">
         <v>111</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:40" ht="15" thickBot="1"/>
     <row r="45" spans="1:40">
       <c r="A45" s="2" t="s">
         <v>114</v>
@@ -17117,7 +17117,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="15.75" thickBot="1">
+    <row r="47" spans="1:40" ht="15" thickBot="1">
       <c r="A47" s="14" t="s">
         <v>111</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="48" spans="1:40" ht="15" thickBot="1"/>
     <row r="49" spans="1:20">
       <c r="A49" s="2" t="s">
         <v>115</v>
@@ -17289,7 +17289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.75" thickBot="1">
+    <row r="51" spans="1:20" ht="15" thickBot="1">
       <c r="A51" s="14" t="s">
         <v>111</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>0.33414637284721094</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5" thickBot="1">
+    <row r="55" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A55" s="33" t="s">
         <v>213</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>49439.903539999999</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.75" thickBot="1">
+    <row r="58" spans="1:20" ht="15" thickBot="1">
       <c r="A58" s="14" t="s">
         <v>111</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>205910.63190000001</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="59" spans="1:20" ht="15" thickBot="1"/>
     <row r="60" spans="1:20">
       <c r="A60" s="2" t="s">
         <v>114</v>
@@ -17672,7 +17672,7 @@
         <v>32184.73475</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1">
+    <row r="62" spans="1:20" ht="15" thickBot="1">
       <c r="A62" s="14" t="s">
         <v>111</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>147647.965</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="63" spans="1:20" ht="15" thickBot="1"/>
     <row r="64" spans="1:20">
       <c r="A64" s="2" t="s">
         <v>115</v>
@@ -17844,7 +17844,7 @@
         <v>11521.985650000001</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.75" thickBot="1">
+    <row r="66" spans="1:20" ht="15" thickBot="1">
       <c r="A66" s="14" t="s">
         <v>111</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>22798.98849</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="19.5" thickBot="1">
+    <row r="70" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A70" s="33" t="s">
         <v>314</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>3850857</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.75" thickBot="1">
+    <row r="73" spans="1:20" ht="15" thickBot="1">
       <c r="A73" s="14" t="s">
         <v>111</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>2626778.25</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:20" ht="15" thickBot="1"/>
     <row r="75" spans="1:20">
       <c r="A75" s="2" t="s">
         <v>114</v>
@@ -18211,7 +18211,7 @@
         <v>3745399.75</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.75" thickBot="1">
+    <row r="77" spans="1:20" ht="15" thickBot="1">
       <c r="A77" s="14" t="s">
         <v>111</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>2715952</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="78" spans="1:20" ht="15" thickBot="1"/>
     <row r="79" spans="1:20">
       <c r="A79" s="2" t="s">
         <v>115</v>
@@ -18383,7 +18383,7 @@
         <v>768252.25</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.75" thickBot="1">
+    <row r="81" spans="1:20" ht="15" thickBot="1">
       <c r="A81" s="14" t="s">
         <v>111</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>5.3802224226029455E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="19.5" thickBot="1">
+    <row r="87" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A87" s="33" t="s">
         <v>357</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>86.878056940274845</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.75" thickBot="1">
+    <row r="90" spans="1:20" ht="15" thickBot="1">
       <c r="A90" s="14" t="s">
         <v>111</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>59.812200739650756</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.75" thickBot="1">
+    <row r="91" spans="1:20" ht="15" thickBot="1">
       <c r="A91" s="15"/>
     </row>
     <row r="92" spans="1:20">
@@ -18964,7 +18964,7 @@
         <v>73.512202026386404</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.75" thickBot="1">
+    <row r="94" spans="1:20" ht="15" thickBot="1">
       <c r="A94" s="14" t="s">
         <v>111</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>63.487810840970077</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.75" thickBot="1">
+    <row r="95" spans="1:20" ht="15" thickBot="1">
       <c r="A95" s="15"/>
     </row>
     <row r="96" spans="1:20">
@@ -19173,7 +19173,7 @@
         <v>14.702440405277281</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.75" thickBot="1">
+    <row r="98" spans="1:18" ht="15" thickBot="1">
       <c r="A98" s="14" t="s">
         <v>111</v>
       </c>
@@ -19263,21 +19263,21 @@
       <selection pane="topRight" activeCell="W165" sqref="W165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5546875" customWidth="1"/>
+    <col min="40" max="40" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15" thickBot="1">
       <c r="A1" s="91">
         <v>1900</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>1.0804480345796483</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1">
+    <row r="4" spans="1:24" ht="15" thickBot="1">
       <c r="A4" s="112"/>
       <c r="B4" s="14" t="s">
         <v>111</v>
@@ -19655,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1">
+    <row r="7" spans="1:24" ht="15" thickBot="1">
       <c r="A7" s="112"/>
       <c r="B7" s="14" t="s">
         <v>111</v>
@@ -19844,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+    <row r="10" spans="1:24" ht="15" thickBot="1">
       <c r="A10" s="112"/>
       <c r="B10" s="15" t="s">
         <v>111</v>
@@ -20033,7 +20033,7 @@
         <v>171.11570889877223</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+    <row r="13" spans="1:24" ht="15" thickBot="1">
       <c r="A13" s="112"/>
       <c r="B13" s="15" t="s">
         <v>111</v>
@@ -20222,7 +20222,7 @@
         <v>119.51829418662345</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1">
+    <row r="16" spans="1:24" ht="15" thickBot="1">
       <c r="A16" s="112"/>
       <c r="B16" s="14" t="s">
         <v>111</v>
@@ -20411,7 +20411,7 @@
         <v>298.20353600554779</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+    <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="A19" s="113"/>
       <c r="B19" s="14" t="s">
         <v>111</v>
@@ -20493,7 +20493,7 @@
         <v>894.61061948648398</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1">
+    <row r="20" spans="1:21" ht="15" thickBot="1">
       <c r="A20" s="111" t="s">
         <v>432</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>149.10176800277389</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+    <row r="23" spans="1:21" ht="15" thickBot="1">
       <c r="A23" s="112"/>
       <c r="B23" s="14" t="s">
         <v>111</v>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1">
+    <row r="26" spans="1:21" ht="15" thickBot="1">
       <c r="A26" s="112"/>
       <c r="B26" s="15" t="s">
         <v>111</v>
@@ -21015,7 +21015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+    <row r="29" spans="1:21" ht="15" thickBot="1">
       <c r="A29" s="112"/>
       <c r="B29" s="14" t="s">
         <v>111</v>
@@ -21195,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1">
+    <row r="32" spans="1:21" ht="15" thickBot="1">
       <c r="A32" s="112"/>
       <c r="B32" s="15" t="s">
         <v>111</v>
@@ -21375,7 +21375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.75" thickBot="1">
+    <row r="35" spans="1:20" ht="15" thickBot="1">
       <c r="A35" s="112"/>
       <c r="B35" s="14" t="s">
         <v>111</v>
@@ -21555,7 +21555,7 @@
         <v>149.10176800277389</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" thickBot="1">
+    <row r="38" spans="1:20" ht="15" thickBot="1">
       <c r="A38" s="113"/>
       <c r="B38" s="14" t="s">
         <v>111</v>
@@ -21633,7 +21633,7 @@
         <v>447.30530974324199</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.75" thickBot="1">
+    <row r="39" spans="1:20" ht="15" thickBot="1">
       <c r="A39" s="111" t="s">
         <v>433</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>59.759147093311725</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1">
+    <row r="42" spans="1:20" ht="15" thickBot="1">
       <c r="A42" s="112"/>
       <c r="B42" s="14" t="s">
         <v>111</v>
@@ -21958,7 +21958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.75" thickBot="1">
+    <row r="45" spans="1:20" ht="15" thickBot="1">
       <c r="A45" s="112"/>
       <c r="B45" s="15" t="s">
         <v>111</v>
@@ -22129,7 +22129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.75" thickBot="1">
+    <row r="48" spans="1:20" ht="15" thickBot="1">
       <c r="A48" s="112"/>
       <c r="B48" s="14" t="s">
         <v>111</v>
@@ -22300,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15.75" thickBot="1">
+    <row r="51" spans="1:22" ht="15" thickBot="1">
       <c r="A51" s="112"/>
       <c r="B51" s="15" t="s">
         <v>111</v>
@@ -22471,7 +22471,7 @@
         <v>59.759147093311725</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15.75" thickBot="1">
+    <row r="54" spans="1:22" ht="15" thickBot="1">
       <c r="A54" s="112"/>
       <c r="B54" s="14" t="s">
         <v>111</v>
@@ -22642,7 +22642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15.75" thickBot="1">
+    <row r="57" spans="1:22" ht="15" thickBot="1">
       <c r="A57" s="113"/>
       <c r="B57" s="14" t="s">
         <v>111</v>
@@ -22716,12 +22716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="19.5" thickBot="1">
+    <row r="59" spans="1:22" ht="18.600000000000001" thickBot="1">
       <c r="A59" s="33" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15.75" thickBot="1">
+    <row r="60" spans="1:22" ht="15" thickBot="1">
       <c r="A60" s="91">
         <v>1950</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>192318600</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15.75" thickBot="1">
+    <row r="63" spans="1:22" ht="15" thickBot="1">
       <c r="A63" s="112"/>
       <c r="B63" s="14" t="s">
         <v>111</v>
@@ -23078,7 +23078,7 @@
         <v>1.9027800743141848E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15.75" thickBot="1">
+    <row r="66" spans="1:23" ht="15" thickBot="1">
       <c r="A66" s="112"/>
       <c r="B66" s="14" t="s">
         <v>111</v>
@@ -23231,7 +23231,7 @@
         <v>0.47824131415266125</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15.75" thickBot="1">
+    <row r="69" spans="1:23" ht="15" thickBot="1">
       <c r="A69" s="112"/>
       <c r="B69" s="15" t="s">
         <v>111</v>
@@ -23402,7 +23402,7 @@
         <v>0.1827805526870516</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15.75" thickBot="1">
+    <row r="72" spans="1:23" ht="15" thickBot="1">
       <c r="A72" s="112"/>
       <c r="B72" s="14" t="s">
         <v>111</v>
@@ -23555,7 +23555,7 @@
         <v>5.0094478641171475E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15.75" thickBot="1">
+    <row r="75" spans="1:23" ht="15" thickBot="1">
       <c r="A75" s="112"/>
       <c r="B75" s="15" t="s">
         <v>111</v>
@@ -23726,7 +23726,7 @@
         <v>0.26985585377597382</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15.75" thickBot="1">
+    <row r="78" spans="1:23" ht="15" thickBot="1">
       <c r="A78" s="113"/>
       <c r="B78" s="14" t="s">
         <v>111</v>
@@ -23798,7 +23798,7 @@
         <v>0.3675276299366888</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15.75" thickBot="1">
+    <row r="79" spans="1:23" ht="15" thickBot="1">
       <c r="A79" s="111" t="s">
         <v>432</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.75" thickBot="1">
+    <row r="82" spans="1:20" ht="15" thickBot="1">
       <c r="A82" s="112"/>
       <c r="B82" s="14" t="s">
         <v>111</v>
@@ -24122,7 +24122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.75" thickBot="1">
+    <row r="85" spans="1:20" ht="15" thickBot="1">
       <c r="A85" s="112"/>
       <c r="B85" s="15" t="s">
         <v>111</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.75" thickBot="1">
+    <row r="88" spans="1:20" ht="15" thickBot="1">
       <c r="A88" s="112"/>
       <c r="B88" s="14" t="s">
         <v>111</v>
@@ -24410,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.75" thickBot="1">
+    <row r="91" spans="1:20" ht="15" thickBot="1">
       <c r="A91" s="112"/>
       <c r="B91" s="15" t="s">
         <v>111</v>
@@ -24554,7 +24554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.75" thickBot="1">
+    <row r="94" spans="1:20" ht="15" thickBot="1">
       <c r="A94" s="112"/>
       <c r="B94" s="14" t="s">
         <v>111</v>
@@ -24698,7 +24698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.75" thickBot="1">
+    <row r="97" spans="1:20" ht="15" thickBot="1">
       <c r="A97" s="113"/>
       <c r="B97" s="14" t="s">
         <v>111</v>
@@ -24758,7 +24758,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.75" thickBot="1">
+    <row r="98" spans="1:20" ht="15" thickBot="1">
       <c r="A98" s="111" t="s">
         <v>433</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.75" thickBot="1">
+    <row r="101" spans="1:20" ht="15" thickBot="1">
       <c r="A101" s="115"/>
       <c r="B101" s="14" t="s">
         <v>111</v>
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.75" thickBot="1">
+    <row r="104" spans="1:20" ht="15" thickBot="1">
       <c r="A104" s="112"/>
       <c r="B104" s="15" t="s">
         <v>111</v>
@@ -25203,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15.75" thickBot="1">
+    <row r="107" spans="1:20" ht="15" thickBot="1">
       <c r="A107" s="112"/>
       <c r="B107" s="14" t="s">
         <v>111</v>
@@ -25340,7 +25340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.75" thickBot="1">
+    <row r="110" spans="1:20" ht="15" thickBot="1">
       <c r="A110" s="112"/>
       <c r="B110" s="15" t="s">
         <v>111</v>
@@ -25477,7 +25477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="15.75" thickBot="1">
+    <row r="113" spans="1:21" ht="15" thickBot="1">
       <c r="A113" s="112"/>
       <c r="B113" s="14" t="s">
         <v>111</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="15.75" thickBot="1">
+    <row r="116" spans="1:21" ht="15" thickBot="1">
       <c r="A116" s="113"/>
       <c r="B116" s="14" t="s">
         <v>111</v>
@@ -25671,13 +25671,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="19.5" thickBot="1">
+    <row r="119" spans="1:21" ht="18.600000000000001" thickBot="1">
       <c r="A119" s="33" t="s">
         <v>357</v>
       </c>
       <c r="B119" s="33"/>
     </row>
-    <row r="120" spans="1:21" ht="15.75" thickBot="1">
+    <row r="120" spans="1:21" ht="15" thickBot="1">
       <c r="A120" s="96">
         <v>1950</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15.75" thickBot="1">
+    <row r="123" spans="1:21" ht="15" thickBot="1">
       <c r="A123" s="109"/>
       <c r="B123" s="100" t="s">
         <v>111</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15.75" thickBot="1">
+    <row r="126" spans="1:21" ht="15" thickBot="1">
       <c r="A126" s="109"/>
       <c r="B126" s="99" t="s">
         <v>111</v>
@@ -26227,7 +26227,7 @@
         <v>184.88163136538168</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="15.75" thickBot="1">
+    <row r="129" spans="1:21" ht="15" thickBot="1">
       <c r="A129" s="109"/>
       <c r="B129" s="99" t="s">
         <v>111</v>
@@ -26416,7 +26416,7 @@
         <v>129.1333060502495</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="15.75" thickBot="1">
+    <row r="132" spans="1:21" ht="15" thickBot="1">
       <c r="A132" s="109"/>
       <c r="B132" s="100" t="s">
         <v>111</v>
@@ -26605,7 +26605,7 @@
         <v>322.19342438189551</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15.75" thickBot="1">
+    <row r="135" spans="1:21" ht="15" thickBot="1">
       <c r="A135" s="110"/>
       <c r="B135" s="100" t="s">
         <v>111</v>
@@ -26687,7 +26687,7 @@
         <v>966.58028553825329</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15.75" thickBot="1">
+    <row r="136" spans="1:21" ht="15" thickBot="1">
       <c r="A136" s="109" t="s">
         <v>432</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15.75" thickBot="1">
+    <row r="139" spans="1:21" ht="15" thickBot="1">
       <c r="A139" s="109"/>
       <c r="B139" s="99" t="s">
         <v>111</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="15.75" thickBot="1">
+    <row r="142" spans="1:21" ht="15" thickBot="1">
       <c r="A142" s="109"/>
       <c r="B142" s="100" t="s">
         <v>111</v>
@@ -27209,7 +27209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15.75" thickBot="1">
+    <row r="145" spans="1:20" ht="15" thickBot="1">
       <c r="A145" s="109"/>
       <c r="B145" s="99" t="s">
         <v>111</v>
@@ -27389,7 +27389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15.75" thickBot="1">
+    <row r="148" spans="1:20" ht="15" thickBot="1">
       <c r="A148" s="109"/>
       <c r="B148" s="100" t="s">
         <v>111</v>
@@ -27569,7 +27569,7 @@
         <v>161.09671219094776</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15.75" thickBot="1">
+    <row r="151" spans="1:20" ht="15" thickBot="1">
       <c r="A151" s="110"/>
       <c r="B151" s="100" t="s">
         <v>111</v>
@@ -27647,7 +27647,7 @@
         <v>483.29014276912665</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.75" thickBot="1">
+    <row r="152" spans="1:20" ht="15" thickBot="1">
       <c r="A152" s="109" t="s">
         <v>433</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15.75" thickBot="1">
+    <row r="155" spans="1:20" ht="15" thickBot="1">
       <c r="A155" s="109"/>
       <c r="B155" s="99" t="s">
         <v>111</v>
@@ -27972,7 +27972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15.75" thickBot="1">
+    <row r="158" spans="1:20" ht="15" thickBot="1">
       <c r="A158" s="109"/>
       <c r="B158" s="100" t="s">
         <v>111</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="15.75" thickBot="1">
+    <row r="161" spans="1:21" ht="15" thickBot="1">
       <c r="A161" s="109"/>
       <c r="B161" s="99" t="s">
         <v>111</v>
@@ -28314,7 +28314,7 @@
         <v>64.566653025124751</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="15.75" thickBot="1">
+    <row r="164" spans="1:21" ht="15" thickBot="1">
       <c r="A164" s="109"/>
       <c r="B164" s="100" t="s">
         <v>111</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="15.75" thickBot="1">
+    <row r="167" spans="1:21" ht="15" thickBot="1">
       <c r="A167" s="110"/>
       <c r="B167" s="100" t="s">
         <v>111</v>
@@ -28559,7 +28559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="15.75" thickBot="1">
+    <row r="168" spans="1:21" ht="15" thickBot="1">
       <c r="A168" s="109" t="s">
         <v>431</v>
       </c>
@@ -28729,7 +28729,7 @@
         <v>636.20836179752666</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="15.75" thickBot="1">
+    <row r="171" spans="1:21" ht="15" thickBot="1">
       <c r="A171" s="109"/>
       <c r="B171" s="100" t="s">
         <v>111</v>
@@ -28811,7 +28811,7 @@
         <v>1221.9074560048641</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="15.75" thickBot="1">
+    <row r="172" spans="1:21" ht="15" thickBot="1">
       <c r="A172" s="109" t="s">
         <v>432</v>
       </c>
@@ -28973,7 +28973,7 @@
         <v>161.09671219094776</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="15.75" thickBot="1">
+    <row r="175" spans="1:21" ht="15" thickBot="1">
       <c r="A175" s="109"/>
       <c r="B175" s="100" t="s">
         <v>111</v>
@@ -29051,7 +29051,7 @@
         <v>547.85679602405889</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="15.75" thickBot="1">
+    <row r="176" spans="1:21" ht="15" thickBot="1">
       <c r="A176" s="109" t="s">
         <v>433</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>64.566653025124751</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="15.75" thickBot="1">
+    <row r="179" spans="1:20" ht="15" thickBot="1">
       <c r="A179" s="109"/>
       <c r="B179" s="100" t="s">
         <v>111</v>
@@ -29279,7 +29279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="19.5" thickBot="1">
+    <row r="190" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A190" s="33" t="s">
         <v>212</v>
       </c>
@@ -29409,7 +29409,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="15.75" thickBot="1">
+    <row r="193" spans="1:20" ht="15" thickBot="1">
       <c r="A193" s="14" t="s">
         <v>111</v>
       </c>
@@ -29471,7 +29471,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="194" spans="1:20" ht="15" thickBot="1"/>
     <row r="195" spans="1:20">
       <c r="A195" s="2" t="s">
         <v>114</v>
@@ -29590,7 +29590,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="15.75" thickBot="1">
+    <row r="197" spans="1:20" ht="15" thickBot="1">
       <c r="A197" s="14" t="s">
         <v>111</v>
       </c>
@@ -29649,7 +29649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="198" spans="1:20" ht="15" thickBot="1"/>
     <row r="199" spans="1:20">
       <c r="A199" s="2" t="s">
         <v>115</v>
@@ -29762,7 +29762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="15.75" thickBot="1">
+    <row r="201" spans="1:20" ht="15" thickBot="1">
       <c r="A201" s="14" t="s">
         <v>111</v>
       </c>
@@ -29834,7 +29834,7 @@
         <v>0.33414637284721094</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="19.5" thickBot="1">
+    <row r="205" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A205" s="33" t="s">
         <v>213</v>
       </c>
@@ -29964,7 +29964,7 @@
         <v>49439.903539999999</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="15.75" thickBot="1">
+    <row r="208" spans="1:20" ht="15" thickBot="1">
       <c r="A208" s="14" t="s">
         <v>111</v>
       </c>
@@ -30026,7 +30026,7 @@
         <v>205910.63190000001</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="209" spans="1:20" ht="15" thickBot="1"/>
     <row r="210" spans="1:20">
       <c r="A210" s="2" t="s">
         <v>114</v>
@@ -30145,7 +30145,7 @@
         <v>32184.73475</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="15.75" thickBot="1">
+    <row r="212" spans="1:20" ht="15" thickBot="1">
       <c r="A212" s="14" t="s">
         <v>111</v>
       </c>
@@ -30204,7 +30204,7 @@
         <v>147647.965</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="213" spans="1:20" ht="15" thickBot="1"/>
     <row r="214" spans="1:20">
       <c r="A214" s="2" t="s">
         <v>115</v>
@@ -30317,7 +30317,7 @@
         <v>11521.985650000001</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="15.75" thickBot="1">
+    <row r="216" spans="1:20" ht="15" thickBot="1">
       <c r="A216" s="14" t="s">
         <v>111</v>
       </c>
@@ -30373,7 +30373,7 @@
         <v>22798.98849</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="19.5" thickBot="1">
+    <row r="220" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A220" s="33" t="s">
         <v>314</v>
       </c>
@@ -30503,7 +30503,7 @@
         <v>3850857</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="15.75" thickBot="1">
+    <row r="223" spans="1:20" ht="15" thickBot="1">
       <c r="A223" s="14" t="s">
         <v>111</v>
       </c>
@@ -30565,7 +30565,7 @@
         <v>2626778.25</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="224" spans="1:20" ht="15" thickBot="1"/>
     <row r="225" spans="1:20">
       <c r="A225" s="2" t="s">
         <v>114</v>
@@ -30684,7 +30684,7 @@
         <v>3745399.75</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="15.75" thickBot="1">
+    <row r="227" spans="1:20" ht="15" thickBot="1">
       <c r="A227" s="14" t="s">
         <v>111</v>
       </c>
@@ -30743,7 +30743,7 @@
         <v>2715952</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="228" spans="1:20" ht="15" thickBot="1"/>
     <row r="229" spans="1:20">
       <c r="A229" s="2" t="s">
         <v>115</v>
@@ -30856,7 +30856,7 @@
         <v>768252.25</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="15.75" thickBot="1">
+    <row r="231" spans="1:20" ht="15" thickBot="1">
       <c r="A231" s="14" t="s">
         <v>111</v>
       </c>
@@ -31099,16 +31099,16 @@
       <selection pane="bottomLeft" activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" customWidth="1"/>
-    <col min="39" max="39" width="15.28515625" customWidth="1"/>
-    <col min="40" max="40" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" customWidth="1"/>
+    <col min="40" max="40" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.75">
+    <row r="1" spans="1:38" ht="18">
       <c r="A1" s="116">
         <v>1900</v>
       </c>
@@ -31152,7 +31152,7 @@
       <c r="AK1" s="116"/>
       <c r="AL1" s="116"/>
     </row>
-    <row r="2" spans="1:38" ht="19.5" thickBot="1">
+    <row r="2" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>418</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15.75" thickBot="1">
+    <row r="3" spans="1:38" ht="15" thickBot="1">
       <c r="B3" t="s">
         <v>121</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>469095.03125</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="19.5" thickBot="1">
+    <row r="25" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A25" s="17" t="s">
         <v>419</v>
       </c>
@@ -33162,7 +33162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15.75" thickBot="1">
+    <row r="26" spans="1:38" ht="15" thickBot="1">
       <c r="B26" t="s">
         <v>121</v>
       </c>
@@ -34967,7 +34967,7 @@
         <v>93754.1640625</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="19.5" thickBot="1">
+    <row r="48" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A48" s="17" t="s">
         <v>420</v>
       </c>
@@ -35071,7 +35071,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:38" ht="15.75" thickBot="1">
+    <row r="49" spans="2:38" ht="15" thickBot="1">
       <c r="B49" t="s">
         <v>121</v>
       </c>
@@ -37026,7 +37026,7 @@
         <v>469095.03125</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="19.5" thickBot="1">
+    <row r="71" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A71" s="17" t="s">
         <v>421</v>
       </c>
@@ -37127,7 +37127,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1">
+    <row r="72" spans="1:38" ht="15" thickBot="1">
       <c r="B72" t="s">
         <v>121</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>93754.1640625</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="19.5" thickBot="1">
+    <row r="94" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A94" s="17" t="s">
         <v>422</v>
       </c>
@@ -39186,7 +39186,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="15.75" thickBot="1">
+    <row r="95" spans="1:38" ht="15" thickBot="1">
       <c r="B95" t="s">
         <v>121</v>
       </c>
@@ -40991,7 +40991,7 @@
         <v>469095.03125</v>
       </c>
     </row>
-    <row r="117" spans="1:38" ht="19.5" thickBot="1">
+    <row r="117" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A117" s="17" t="s">
         <v>423</v>
       </c>
@@ -41092,7 +41092,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:38" ht="15.75" thickBot="1">
+    <row r="118" spans="1:38" ht="15" thickBot="1">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -42897,7 +42897,7 @@
         <v>93754.1640625</v>
       </c>
     </row>
-    <row r="140" spans="1:38" ht="19.5" thickBot="1">
+    <row r="140" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A140" s="17" t="s">
         <v>424</v>
       </c>
@@ -43001,7 +43001,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:38" ht="15.75" thickBot="1">
+    <row r="141" spans="1:38" ht="15" thickBot="1">
       <c r="B141" t="s">
         <v>121</v>
       </c>
@@ -44806,7 +44806,7 @@
         <v>469095.03125</v>
       </c>
     </row>
-    <row r="163" spans="1:38" ht="19.5" thickBot="1">
+    <row r="163" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A163" s="17" t="s">
         <v>425</v>
       </c>
@@ -44907,7 +44907,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:38" ht="15.75" thickBot="1">
+    <row r="164" spans="1:38" ht="15" thickBot="1">
       <c r="B164" t="s">
         <v>121</v>
       </c>
@@ -46712,7 +46712,7 @@
         <v>93754.1640625</v>
       </c>
     </row>
-    <row r="186" spans="1:38" ht="19.5" thickBot="1">
+    <row r="186" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A186" s="17" t="s">
         <v>426</v>
       </c>
@@ -46816,7 +46816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:38" ht="15.75" thickBot="1">
+    <row r="187" spans="1:38" ht="15" thickBot="1">
       <c r="B187" t="s">
         <v>121</v>
       </c>
@@ -48621,7 +48621,7 @@
         <v>469095.03125</v>
       </c>
     </row>
-    <row r="209" spans="1:38" ht="19.5" thickBot="1">
+    <row r="209" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A209" s="17" t="s">
         <v>427</v>
       </c>
@@ -48722,7 +48722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="210" spans="1:38" ht="15.75" thickBot="1">
+    <row r="210" spans="1:38" ht="15" thickBot="1">
       <c r="B210" t="s">
         <v>121</v>
       </c>
@@ -50527,7 +50527,7 @@
         <v>93754.1640625</v>
       </c>
     </row>
-    <row r="232" spans="1:38" ht="19.5" thickBot="1">
+    <row r="232" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A232" s="17" t="s">
         <v>428</v>
       </c>
@@ -50631,7 +50631,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="233" spans="1:38" ht="15.75" thickBot="1">
+    <row r="233" spans="1:38" ht="15" thickBot="1">
       <c r="B233" t="s">
         <v>121</v>
       </c>
@@ -52436,7 +52436,7 @@
         <v>469095.03125</v>
       </c>
     </row>
-    <row r="255" spans="1:38" ht="19.5" thickBot="1">
+    <row r="255" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A255" s="17" t="s">
         <v>429</v>
       </c>
@@ -52537,7 +52537,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="256" spans="1:38" ht="15.75" thickBot="1">
+    <row r="256" spans="1:38" ht="15" thickBot="1">
       <c r="B256" t="s">
         <v>121</v>
       </c>
@@ -54362,7 +54362,7 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -55257,13 +55257,13 @@
       <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -55970,7 +55970,7 @@
         <v>3.8188840000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:22" ht="15" thickBot="1"/>
     <row r="13" spans="1:22">
       <c r="A13" s="72" t="s">
         <v>404</v>
@@ -56675,7 +56675,7 @@
         <v>59.644039999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="24" spans="1:22" ht="15" thickBot="1"/>
     <row r="25" spans="1:22">
       <c r="A25" s="72" t="s">
         <v>405</v>
@@ -57380,7 +57380,7 @@
         <v>2.208701</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="36" spans="1:22" ht="15" thickBot="1"/>
     <row r="37" spans="1:22">
       <c r="A37" s="72" t="s">
         <v>406</v>
@@ -58085,7 +58085,7 @@
         <v>-7.9391400000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="48" spans="1:22" ht="15" thickBot="1"/>
     <row r="49" spans="1:22">
       <c r="A49" s="72" t="s">
         <v>407</v>
@@ -58790,7 +58790,7 @@
         <v>3.9565169999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="60" spans="1:22" ht="15" thickBot="1"/>
     <row r="61" spans="1:22">
       <c r="A61" s="72" t="s">
         <v>473</v>
@@ -59513,12 +59513,12 @@
   <dimension ref="A1:CX43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102">

--- a/version_oct_2023/Reg_InitialValues.xlsx
+++ b/version_oct_2023/Reg_InitialValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/vn73vs_plan_aau_dk/Documents/Research Postdoc RU/Felix-Model/version_oct_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/vn73vs_plan_aau_dk/Documents/Research RU/Felix-Model/version_oct_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{BC87DD94-8A18-4A38-BD52-67B37BD28289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34AF1337-3F99-4697-9021-69F9E35F8284}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{BC87DD94-8A18-4A38-BD52-67B37BD28289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C8E0D9D-1EC1-473C-84FB-453A93FB4567}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="870" yWindow="930" windowWidth="29850" windowHeight="15630" tabRatio="695" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="695" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -1503,9 +1503,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -2789,7 +2789,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
@@ -2934,7 +2934,7 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2963,7 +2963,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="44" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -59513,7 +59513,7 @@
   <dimension ref="A1:CX43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
